--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.09024581356935</v>
+        <v>50.80855966666667</v>
       </c>
       <c r="H2">
-        <v>4.09024581356935</v>
+        <v>152.425679</v>
       </c>
       <c r="I2">
-        <v>0.01455777546769894</v>
+        <v>0.1328146143749533</v>
       </c>
       <c r="J2">
-        <v>0.01455777546769894</v>
+        <v>0.1328146143749533</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.83877766564285</v>
+        <v>6.840255666666667</v>
       </c>
       <c r="N2">
-        <v>5.83877766564285</v>
+        <v>20.520767</v>
       </c>
       <c r="O2">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="P2">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="Q2">
-        <v>23.88203590325789</v>
+        <v>347.5435381750881</v>
       </c>
       <c r="R2">
-        <v>23.88203590325789</v>
+        <v>3127.891843575793</v>
       </c>
       <c r="S2">
-        <v>0.003100299024706302</v>
+        <v>0.03089561777023849</v>
       </c>
       <c r="T2">
-        <v>0.003100299024706302</v>
+        <v>0.03089561777023849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.09024581356935</v>
+        <v>50.80855966666667</v>
       </c>
       <c r="H3">
-        <v>4.09024581356935</v>
+        <v>152.425679</v>
       </c>
       <c r="I3">
-        <v>0.01455777546769894</v>
+        <v>0.1328146143749533</v>
       </c>
       <c r="J3">
-        <v>0.01455777546769894</v>
+        <v>0.1328146143749533</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.336610684965279</v>
+        <v>9.415322999999999</v>
       </c>
       <c r="N3">
-        <v>9.336610684965279</v>
+        <v>28.245969</v>
       </c>
       <c r="O3">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620894</v>
       </c>
       <c r="P3">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620895</v>
       </c>
       <c r="Q3">
-        <v>38.1890327671061</v>
+        <v>478.3790004264389</v>
       </c>
       <c r="R3">
-        <v>38.1890327671061</v>
+        <v>4305.411003837951</v>
       </c>
       <c r="S3">
-        <v>0.004957593294053492</v>
+        <v>0.04252651286250681</v>
       </c>
       <c r="T3">
-        <v>0.004957593294053492</v>
+        <v>0.04252651286250682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.09024581356935</v>
+        <v>50.80855966666667</v>
       </c>
       <c r="H4">
-        <v>4.09024581356935</v>
+        <v>152.425679</v>
       </c>
       <c r="I4">
-        <v>0.01455777546769894</v>
+        <v>0.1328146143749533</v>
       </c>
       <c r="J4">
-        <v>0.01455777546769894</v>
+        <v>0.1328146143749533</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.10171951357991</v>
+        <v>7.720817</v>
       </c>
       <c r="N4">
-        <v>7.10171951357991</v>
+        <v>23.162451</v>
       </c>
       <c r="O4">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="P4">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="Q4">
-        <v>29.04777850956399</v>
+        <v>392.2835912199143</v>
       </c>
       <c r="R4">
-        <v>29.04777850956399</v>
+        <v>3530.552320979229</v>
       </c>
       <c r="S4">
-        <v>0.003770901264359993</v>
+        <v>0.034872879396656</v>
       </c>
       <c r="T4">
-        <v>0.003770901264359993</v>
+        <v>0.034872879396656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.09024581356935</v>
+        <v>50.80855966666667</v>
       </c>
       <c r="H5">
-        <v>4.09024581356935</v>
+        <v>152.425679</v>
       </c>
       <c r="I5">
-        <v>0.01455777546769894</v>
+        <v>0.1328146143749533</v>
       </c>
       <c r="J5">
-        <v>0.01455777546769894</v>
+        <v>0.1328146143749533</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.13947795056129</v>
+        <v>5.428613333333334</v>
       </c>
       <c r="N5">
-        <v>5.13947795056129</v>
+        <v>16.28584</v>
       </c>
       <c r="O5">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="P5">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="Q5">
-        <v>21.0217281712153</v>
+        <v>275.8200244539289</v>
       </c>
       <c r="R5">
-        <v>21.0217281712153</v>
+        <v>2482.38022008536</v>
       </c>
       <c r="S5">
-        <v>0.002728981884579157</v>
+        <v>0.02451960434555204</v>
       </c>
       <c r="T5">
-        <v>0.002728981884579157</v>
+        <v>0.02451960434555204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.58134372971285</v>
+        <v>6.697301333333333</v>
       </c>
       <c r="H6">
-        <v>6.58134372971285</v>
+        <v>20.091904</v>
       </c>
       <c r="I6">
-        <v>0.02342395265708975</v>
+        <v>0.01750688269408059</v>
       </c>
       <c r="J6">
-        <v>0.02342395265708975</v>
+        <v>0.01750688269408059</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.83877766564285</v>
+        <v>6.840255666666667</v>
       </c>
       <c r="N6">
-        <v>5.83877766564285</v>
+        <v>20.520767</v>
       </c>
       <c r="O6">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="P6">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="Q6">
-        <v>38.427002778966</v>
+        <v>45.81125339670756</v>
       </c>
       <c r="R6">
-        <v>38.427002778966</v>
+        <v>412.301280570368</v>
       </c>
       <c r="S6">
-        <v>0.004988485894611804</v>
+        <v>0.004072488246946408</v>
       </c>
       <c r="T6">
-        <v>0.004988485894611804</v>
+        <v>0.004072488246946408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.58134372971285</v>
+        <v>6.697301333333333</v>
       </c>
       <c r="H7">
-        <v>6.58134372971285</v>
+        <v>20.091904</v>
       </c>
       <c r="I7">
-        <v>0.02342395265708975</v>
+        <v>0.01750688269408059</v>
       </c>
       <c r="J7">
-        <v>0.02342395265708975</v>
+        <v>0.01750688269408059</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.336610684965279</v>
+        <v>9.415322999999999</v>
       </c>
       <c r="N7">
-        <v>9.336610684965279</v>
+        <v>28.245969</v>
       </c>
       <c r="O7">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620894</v>
       </c>
       <c r="P7">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620895</v>
       </c>
       <c r="Q7">
-        <v>61.44744418826624</v>
+        <v>63.05725528166399</v>
       </c>
       <c r="R7">
-        <v>61.44744418826624</v>
+        <v>567.515297534976</v>
       </c>
       <c r="S7">
-        <v>0.007976935134813561</v>
+        <v>0.005605608054324312</v>
       </c>
       <c r="T7">
-        <v>0.007976935134813561</v>
+        <v>0.005605608054324313</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.58134372971285</v>
+        <v>6.697301333333333</v>
       </c>
       <c r="H8">
-        <v>6.58134372971285</v>
+        <v>20.091904</v>
       </c>
       <c r="I8">
-        <v>0.02342395265708975</v>
+        <v>0.01750688269408059</v>
       </c>
       <c r="J8">
-        <v>0.02342395265708975</v>
+        <v>0.01750688269408059</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.10171951357991</v>
+        <v>7.720817</v>
       </c>
       <c r="N8">
-        <v>7.10171951357991</v>
+        <v>23.162451</v>
       </c>
       <c r="O8">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="P8">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="Q8">
-        <v>46.73885719087853</v>
+        <v>51.70863798852267</v>
       </c>
       <c r="R8">
-        <v>46.73885719087853</v>
+        <v>465.377741896704</v>
       </c>
       <c r="S8">
-        <v>0.006067507558892857</v>
+        <v>0.004596748721330546</v>
       </c>
       <c r="T8">
-        <v>0.006067507558892857</v>
+        <v>0.004596748721330546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.58134372971285</v>
+        <v>6.697301333333333</v>
       </c>
       <c r="H9">
-        <v>6.58134372971285</v>
+        <v>20.091904</v>
       </c>
       <c r="I9">
-        <v>0.02342395265708975</v>
+        <v>0.01750688269408059</v>
       </c>
       <c r="J9">
-        <v>0.02342395265708975</v>
+        <v>0.01750688269408059</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.13947795056129</v>
+        <v>5.428613333333334</v>
       </c>
       <c r="N9">
-        <v>5.13947795056129</v>
+        <v>16.28584</v>
       </c>
       <c r="O9">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="P9">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="Q9">
-        <v>33.82467098392399</v>
+        <v>36.35705931548444</v>
       </c>
       <c r="R9">
-        <v>33.82467098392399</v>
+        <v>327.21353383936</v>
       </c>
       <c r="S9">
-        <v>0.004391024068771526</v>
+        <v>0.003232037671479321</v>
       </c>
       <c r="T9">
-        <v>0.004391024068771526</v>
+        <v>0.003232037671479321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>260.808550574282</v>
+        <v>311.72598</v>
       </c>
       <c r="H10">
-        <v>260.808550574282</v>
+        <v>935.1779399999999</v>
       </c>
       <c r="I10">
-        <v>0.9282552913374009</v>
+        <v>0.8148580887939706</v>
       </c>
       <c r="J10">
-        <v>0.9282552913374009</v>
+        <v>0.8148580887939705</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.83877766564285</v>
+        <v>6.840255666666667</v>
       </c>
       <c r="N10">
-        <v>5.83877766564285</v>
+        <v>20.520767</v>
       </c>
       <c r="O10">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="P10">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="Q10">
-        <v>1522.803140101801</v>
+        <v>2132.28540114222</v>
       </c>
       <c r="R10">
-        <v>1522.803140101801</v>
+        <v>19190.56861027998</v>
       </c>
       <c r="S10">
-        <v>0.1976860393813104</v>
+        <v>0.1895540198407056</v>
       </c>
       <c r="T10">
-        <v>0.1976860393813104</v>
+        <v>0.1895540198407056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>260.808550574282</v>
+        <v>311.72598</v>
       </c>
       <c r="H11">
-        <v>260.808550574282</v>
+        <v>935.1779399999999</v>
       </c>
       <c r="I11">
-        <v>0.9282552913374009</v>
+        <v>0.8148580887939706</v>
       </c>
       <c r="J11">
-        <v>0.9282552913374009</v>
+        <v>0.8148580887939705</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.336610684965279</v>
+        <v>9.415322999999999</v>
       </c>
       <c r="N11">
-        <v>9.336610684965279</v>
+        <v>28.245969</v>
       </c>
       <c r="O11">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620894</v>
       </c>
       <c r="P11">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620895</v>
       </c>
       <c r="Q11">
-        <v>2435.067900022148</v>
+        <v>2935.00078919154</v>
       </c>
       <c r="R11">
-        <v>2435.067900022148</v>
+        <v>26415.00710272386</v>
       </c>
       <c r="S11">
-        <v>0.3161136959224832</v>
+        <v>0.2609131017493622</v>
       </c>
       <c r="T11">
-        <v>0.3161136959224832</v>
+        <v>0.2609131017493622</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>260.808550574282</v>
+        <v>311.72598</v>
       </c>
       <c r="H12">
-        <v>260.808550574282</v>
+        <v>935.1779399999999</v>
       </c>
       <c r="I12">
-        <v>0.9282552913374009</v>
+        <v>0.8148580887939706</v>
       </c>
       <c r="J12">
-        <v>0.9282552913374009</v>
+        <v>0.8148580887939705</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.10171951357991</v>
+        <v>7.720817</v>
       </c>
       <c r="N12">
-        <v>7.10171951357991</v>
+        <v>23.162451</v>
       </c>
       <c r="O12">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="P12">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="Q12">
-        <v>1852.189172921871</v>
+        <v>2406.77924572566</v>
       </c>
       <c r="R12">
-        <v>1852.189172921871</v>
+        <v>21661.01321153094</v>
       </c>
       <c r="S12">
-        <v>0.2404460117907244</v>
+        <v>0.2139557306222215</v>
       </c>
       <c r="T12">
-        <v>0.2404460117907244</v>
+        <v>0.2139557306222214</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>260.808550574282</v>
+        <v>311.72598</v>
       </c>
       <c r="H13">
-        <v>260.808550574282</v>
+        <v>935.1779399999999</v>
       </c>
       <c r="I13">
-        <v>0.9282552913374009</v>
+        <v>0.8148580887939706</v>
       </c>
       <c r="J13">
-        <v>0.9282552913374009</v>
+        <v>0.8148580887939705</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.13947795056129</v>
+        <v>5.428613333333334</v>
       </c>
       <c r="N13">
-        <v>5.13947795056129</v>
+        <v>16.28584</v>
       </c>
       <c r="O13">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="P13">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="Q13">
-        <v>1340.419794994371</v>
+        <v>1692.2398113744</v>
       </c>
       <c r="R13">
-        <v>1340.419794994371</v>
+        <v>15230.1583023696</v>
       </c>
       <c r="S13">
-        <v>0.1740095442428829</v>
+        <v>0.1504352365816812</v>
       </c>
       <c r="T13">
-        <v>0.1740095442428829</v>
+        <v>0.1504352365816812</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.48626320723371</v>
+        <v>13.32063566666667</v>
       </c>
       <c r="H14">
-        <v>9.48626320723371</v>
+        <v>39.961907</v>
       </c>
       <c r="I14">
-        <v>0.03376298053781029</v>
+        <v>0.03482041413699558</v>
       </c>
       <c r="J14">
-        <v>0.03376298053781029</v>
+        <v>0.03482041413699557</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.83877766564285</v>
+        <v>6.840255666666667</v>
       </c>
       <c r="N14">
-        <v>5.83877766564285</v>
+        <v>20.520767</v>
       </c>
       <c r="O14">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="P14">
-        <v>0.2129651629526298</v>
+        <v>0.2326221245729483</v>
       </c>
       <c r="Q14">
-        <v>55.38818174480569</v>
+        <v>91.11655360251879</v>
       </c>
       <c r="R14">
-        <v>55.38818174480569</v>
+        <v>820.048982422669</v>
       </c>
       <c r="S14">
-        <v>0.007190338652001238</v>
+        <v>0.008099998715057836</v>
       </c>
       <c r="T14">
-        <v>0.007190338652001238</v>
+        <v>0.008099998715057835</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.48626320723371</v>
+        <v>13.32063566666667</v>
       </c>
       <c r="H15">
-        <v>9.48626320723371</v>
+        <v>39.961907</v>
       </c>
       <c r="I15">
-        <v>0.03376298053781029</v>
+        <v>0.03482041413699558</v>
       </c>
       <c r="J15">
-        <v>0.03376298053781029</v>
+        <v>0.03482041413699557</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.336610684965279</v>
+        <v>9.415322999999999</v>
       </c>
       <c r="N15">
-        <v>9.336610684965279</v>
+        <v>28.245969</v>
       </c>
       <c r="O15">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620894</v>
       </c>
       <c r="P15">
-        <v>0.3405460748486944</v>
+        <v>0.3201945287620895</v>
       </c>
       <c r="Q15">
-        <v>88.56954642105126</v>
+        <v>125.418087366987</v>
       </c>
       <c r="R15">
-        <v>88.56954642105126</v>
+        <v>1128.762786302883</v>
       </c>
       <c r="S15">
-        <v>0.01149785049734416</v>
+        <v>0.01114930609589609</v>
       </c>
       <c r="T15">
-        <v>0.01149785049734416</v>
+        <v>0.01114930609589609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.48626320723371</v>
+        <v>13.32063566666667</v>
       </c>
       <c r="H16">
-        <v>9.48626320723371</v>
+        <v>39.961907</v>
       </c>
       <c r="I16">
-        <v>0.03376298053781029</v>
+        <v>0.03482041413699558</v>
       </c>
       <c r="J16">
-        <v>0.03376298053781029</v>
+        <v>0.03482041413699557</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.10171951357991</v>
+        <v>7.720817</v>
       </c>
       <c r="N16">
-        <v>7.10171951357991</v>
+        <v>23.162451</v>
       </c>
       <c r="O16">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="P16">
-        <v>0.2590300470512776</v>
+        <v>0.2625680883144773</v>
       </c>
       <c r="Q16">
-        <v>67.36878052976678</v>
+        <v>102.8461903060063</v>
       </c>
       <c r="R16">
-        <v>67.36878052976678</v>
+        <v>925.6157127540571</v>
       </c>
       <c r="S16">
-        <v>0.008745626437300372</v>
+        <v>0.009142729574269329</v>
       </c>
       <c r="T16">
-        <v>0.008745626437300372</v>
+        <v>0.009142729574269327</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.48626320723371</v>
+        <v>13.32063566666667</v>
       </c>
       <c r="H17">
-        <v>9.48626320723371</v>
+        <v>39.961907</v>
       </c>
       <c r="I17">
-        <v>0.03376298053781029</v>
+        <v>0.03482041413699558</v>
       </c>
       <c r="J17">
-        <v>0.03376298053781029</v>
+        <v>0.03482041413699557</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.13947795056129</v>
+        <v>5.428613333333334</v>
       </c>
       <c r="N17">
-        <v>5.13947795056129</v>
+        <v>16.28584</v>
       </c>
       <c r="O17">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="P17">
-        <v>0.1874587151473981</v>
+        <v>0.1846152583504849</v>
       </c>
       <c r="Q17">
-        <v>48.75444058679848</v>
+        <v>72.31258038854223</v>
       </c>
       <c r="R17">
-        <v>48.75444058679848</v>
+        <v>650.81322349688</v>
       </c>
       <c r="S17">
-        <v>0.006329164951164526</v>
+        <v>0.006428379751772315</v>
       </c>
       <c r="T17">
-        <v>0.006329164951164526</v>
+        <v>0.006428379751772314</v>
       </c>
     </row>
   </sheetData>
